--- a/biology/Zoologie/Bouvier_(chien)/Bouvier_(chien).xlsx
+++ b/biology/Zoologie/Bouvier_(chien)/Bouvier_(chien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bouvier est un type de chien regroupant plusieurs races. L'appellation bouvier utilisée vis-à-vis d'un chien signifiait qu'il gardait les troupeaux de bovins (en général des vaches auprès de leurs maîtres eux-mêmes appelés bouviers). Aujourd'hui l'appellation se fait rare pour exprimer cette fonction, et elle apparaît surtout pour désigner certains types de chien regroupés dans la section 2 du groupe 1 selon la nomenclature FCI.
 </t>
@@ -511,7 +523,9 @@
           <t>Appellation et fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bouviers ont donc en commun d'avoir eu ce rôle de gardien de bovins auprès de l'homme. 
 Il n'y a pas de délimitation précise à cette appellation. Des chiens d'autres races peuvent aussi être ou avoir été des bouviers par leur fonction prépondérante (ou non), sans que cela apparaisse dans la dénomination de la race.
@@ -546,13 +560,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les bouviers suisses[1]
-Bouvier bernois (FCI groupe 2)
+          <t>Les bouviers suisses[1]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bouvier bernois (FCI groupe 2)
 Bouvier de l'Entlebuch (FCI groupe 2)
 Bouvier de l’Appenzell (FCI groupe 2)
-Grand bouvier suisse (FCI groupe 2)
-Bouviers non suisses
-Bouvier australien
+Grand bouvier suisse (FCI groupe 2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bouvier_(chien)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouvier_(chien)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Races de chien bouvier (liste non exhaustive)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bouviers non suisses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bouvier australien
 Bouvier australien courte queue
 Bouvier des Flandres
 Bouvier des Ardennes
